--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/507ddcad8a22ed8d/Desktop/followUp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{C9DF6548-E725-404C-95C9-1422D2B79ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A840F8A-3D17-46FC-BA03-CE47DFCF2233}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{C9DF6548-E725-404C-95C9-1422D2B79ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FE35B5C-70B0-4B9F-BEEF-0661F72FB63C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{88825574-4014-4583-AD9D-C70F5DDC635B}"/>
   </bookViews>
@@ -450,14 +450,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45639</v>
+        <v>45639.637499999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>45639</v>
+        <v>45639.638194444444</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
